--- a/50states.xlsx
+++ b/50states.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\local.store\dev\py\WebScraping-master (1)\WebScraping-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\john\software_dev\50_states\50states-main\50states-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{81C6C4AC-DE08-4A96-A4CA-54F32779F071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E78AB2-3432-439E-AD2B-6427FDB41D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-3950" windowWidth="38620" windowHeight="21220"/>
+    <workbookView xWindow="25490" yWindow="-4020" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="50states" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="214">
   <si>
     <t>State</t>
   </si>
@@ -497,13 +510,178 @@
   </si>
   <si>
     <t>Cheyenne</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>https://www.states101.com/img/flags/gif/small/</t>
+  </si>
+  <si>
+    <t>./images/alabama.gif</t>
+  </si>
+  <si>
+    <t>./images/alaska.gif</t>
+  </si>
+  <si>
+    <t>./images/arizona.gif</t>
+  </si>
+  <si>
+    <t>./images/arkansas.gif</t>
+  </si>
+  <si>
+    <t>./images/california.gif</t>
+  </si>
+  <si>
+    <t>./images/colorado.gif</t>
+  </si>
+  <si>
+    <t>./images/connecticut.gif</t>
+  </si>
+  <si>
+    <t>./images/delaware.gif</t>
+  </si>
+  <si>
+    <t>./images/florida.gif</t>
+  </si>
+  <si>
+    <t>./images/georgia.gif</t>
+  </si>
+  <si>
+    <t>./images/hawaii.gif</t>
+  </si>
+  <si>
+    <t>./images/idaho.gif</t>
+  </si>
+  <si>
+    <t>./images/illinois.gif</t>
+  </si>
+  <si>
+    <t>./images/indiana.gif</t>
+  </si>
+  <si>
+    <t>./images/iowa.gif</t>
+  </si>
+  <si>
+    <t>./images/kansas.gif</t>
+  </si>
+  <si>
+    <t>./images/kentucky.gif</t>
+  </si>
+  <si>
+    <t>./images/louisiana.gif</t>
+  </si>
+  <si>
+    <t>./images/maine.gif</t>
+  </si>
+  <si>
+    <t>./images/maryland.gif</t>
+  </si>
+  <si>
+    <t>./images/massachusetts.gif</t>
+  </si>
+  <si>
+    <t>./images/michigan.gif</t>
+  </si>
+  <si>
+    <t>./images/minnesota.gif</t>
+  </si>
+  <si>
+    <t>./images/mississippi.gif</t>
+  </si>
+  <si>
+    <t>./images/missouri.gif</t>
+  </si>
+  <si>
+    <t>./images/montana.gif</t>
+  </si>
+  <si>
+    <t>./images/nebraska.gif</t>
+  </si>
+  <si>
+    <t>./images/nevada.gif</t>
+  </si>
+  <si>
+    <t>./images/new-hampshire.gif</t>
+  </si>
+  <si>
+    <t>./images/new-jersey.gif</t>
+  </si>
+  <si>
+    <t>./images/new-mexico.gif</t>
+  </si>
+  <si>
+    <t>./images/new-york.gif</t>
+  </si>
+  <si>
+    <t>./images/north-carolina.gif</t>
+  </si>
+  <si>
+    <t>./images/north-dakota.gif</t>
+  </si>
+  <si>
+    <t>./images/ohio.gif</t>
+  </si>
+  <si>
+    <t>./images/oklahoma.gif</t>
+  </si>
+  <si>
+    <t>./images/oregon.gif</t>
+  </si>
+  <si>
+    <t>./images/pennsylvania.gif</t>
+  </si>
+  <si>
+    <t>./images/rhode-island.gif</t>
+  </si>
+  <si>
+    <t>./images/south-carolina.gif</t>
+  </si>
+  <si>
+    <t>./images/south-dakota.gif</t>
+  </si>
+  <si>
+    <t>./images/tennessee.gif</t>
+  </si>
+  <si>
+    <t>./images/texas.gif</t>
+  </si>
+  <si>
+    <t>./images/utah.gif</t>
+  </si>
+  <si>
+    <t>./images/vermont.gif</t>
+  </si>
+  <si>
+    <t>./images/virginia.gif</t>
+  </si>
+  <si>
+    <t>./images/washington.gif</t>
+  </si>
+  <si>
+    <t>./images/west-virginia.gif</t>
+  </si>
+  <si>
+    <t>./images/wisconsin.gif</t>
+  </si>
+  <si>
+    <t>./images/wyoming.gif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +812,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,7 +1122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -979,12 +1165,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1018,6 +1207,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1337,11 +1527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,9 +1547,14 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="122.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="74" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="84.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1395,7 +1590,7 @@
         <v>('State', 'Abr.', 'State-hood', 'Capital', 'Capital since', 'Area (miÂ²)', 'City', 'Metropolitan', 'Rank in state'),</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1430,8 +1625,38 @@
         <f>"('"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', '"&amp;G2&amp;"', '"&amp;H2&amp;"', '"&amp;I2&amp;"', '"&amp;J2&amp;"'),"</f>
         <v>('Alabama', 'AL', '1819', 'Montgomery', '1846', '159.8', '198218', '373903', '2'),</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="str">
+        <f>O2&amp;M2&amp;T2&amp;N2&amp;M2&amp;B2&amp;N2&amp;M2&amp;C2&amp;N2&amp;P2</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/alabama.gif'&gt;&lt;/td&gt;&lt;td&gt;Alabama&lt;/td&gt;&lt;td&gt;AL&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" t="str">
+        <f>Q2&amp;B2&amp;".gif"</f>
+        <v>https://www.states101.com/img/flags/gif/small/Alabama.gif</v>
+      </c>
+      <c r="S2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"&lt;img src='"&amp;S2&amp;"'&gt;"</f>
+        <v>&lt;img src='./images/alabama.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1463,8 +1688,38 @@
         <f t="shared" ref="K3:K51" si="0">"('"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', '"&amp;G3&amp;"', '"&amp;H3&amp;"', '"&amp;I3&amp;"', '"&amp;J3&amp;"'),"</f>
         <v>('Alaska', 'AK', '1959', 'Juneau', '1906', '2716.7', '31275', '', '2'),</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L51" si="1">O3&amp;M3&amp;T3&amp;N3&amp;M3&amp;B3&amp;N3&amp;M3&amp;C3&amp;N3&amp;P3</f>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/alaska.gif'&gt;&lt;/td&gt;&lt;td&gt;Alaska&lt;/td&gt;&lt;td&gt;AK&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R51" si="2">Q3&amp;B3&amp;".gif"</f>
+        <v>https://www.states101.com/img/flags/gif/small/Alaska.gif</v>
+      </c>
+      <c r="S3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T51" si="3">"&lt;img src='"&amp;S3&amp;"'&gt;"</f>
+        <v>&lt;img src='./images/alaska.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1499,8 +1754,38 @@
         <f t="shared" si="0"/>
         <v>('Arizona', 'AZ', '1912', 'Phoenix', '1889', '517.6', '1660272', '4857962', '1'),</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/arizona.gif'&gt;&lt;/td&gt;&lt;td&gt;Arizona&lt;/td&gt;&lt;td&gt;AZ&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Arizona.gif</v>
+      </c>
+      <c r="S4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/arizona.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1535,8 +1820,38 @@
         <f t="shared" si="0"/>
         <v>('Arkansas', 'AR', '1836', 'Little Rock', '1821', '116.2', '193524', '699757', '1'),</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/arkansas.gif'&gt;&lt;/td&gt;&lt;td&gt;Arkansas&lt;/td&gt;&lt;td&gt;AR&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Arkansas.gif</v>
+      </c>
+      <c r="S5" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/arkansas.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1571,8 +1886,38 @@
         <f t="shared" si="0"/>
         <v>('California', 'CA', '1850', 'Sacramento', '1854', '97.9', '508529', '2345210', '6'),</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/california.gif'&gt;&lt;/td&gt;&lt;td&gt;California&lt;/td&gt;&lt;td&gt;CA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/California.gif</v>
+      </c>
+      <c r="S6" t="s">
+        <v>168</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/california.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1607,8 +1952,38 @@
         <f t="shared" si="0"/>
         <v>('Colorado', 'CO', '1876', 'Denver', '1867', '153.3', '716492', '2932415', '1'),</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/colorado.gif'&gt;&lt;/td&gt;&lt;td&gt;Colorado&lt;/td&gt;&lt;td&gt;CO&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M7" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Colorado.gif</v>
+      </c>
+      <c r="S7" t="s">
+        <v>169</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/colorado.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1643,8 +2018,38 @@
         <f t="shared" si="0"/>
         <v>('Connecticut', 'CT', '1788', 'Hartford', '1875', '17.3', '124775', '1212381', '3'),</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/connecticut.gif'&gt;&lt;/td&gt;&lt;td&gt;Connecticut&lt;/td&gt;&lt;td&gt;CT&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" t="s">
+        <v>161</v>
+      </c>
+      <c r="P8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Connecticut.gif</v>
+      </c>
+      <c r="S8" t="s">
+        <v>170</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/connecticut.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1679,8 +2084,38 @@
         <f t="shared" si="0"/>
         <v>('Delaware', 'DE', '1787', 'Dover', '1777', '22.4', '36047', '162310', '2'),</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/delaware.gif'&gt;&lt;/td&gt;&lt;td&gt;Delaware&lt;/td&gt;&lt;td&gt;DE&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M9" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" t="s">
+        <v>161</v>
+      </c>
+      <c r="P9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Delaware.gif</v>
+      </c>
+      <c r="S9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/delaware.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1715,8 +2150,38 @@
         <f t="shared" si="0"/>
         <v>('Florida', 'FL', '1845', 'Tallahassee', '1824', '95.7', '181376', '367413', '7'),</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/florida.gif'&gt;&lt;/td&gt;&lt;td&gt;Florida&lt;/td&gt;&lt;td&gt;FL&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M10" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Florida.gif</v>
+      </c>
+      <c r="S10" t="s">
+        <v>172</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/florida.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1751,8 +2216,38 @@
         <f t="shared" si="0"/>
         <v>('Georgia', 'GA', '1788', 'Atlanta', '1868', '133.5', '498044', '5949951', '1'),</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/georgia.gif'&gt;&lt;/td&gt;&lt;td&gt;Georgia&lt;/td&gt;&lt;td&gt;GA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M11" t="s">
+        <v>159</v>
+      </c>
+      <c r="N11" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Georgia.gif</v>
+      </c>
+      <c r="S11" t="s">
+        <v>173</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/georgia.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1787,8 +2282,38 @@
         <f t="shared" si="0"/>
         <v>('Hawaii', 'HI', '1959', 'Honolulu', '1845', '68.4', '359870', '953207', '1'),</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/hawaii.gif'&gt;&lt;/td&gt;&lt;td&gt;Hawaii&lt;/td&gt;&lt;td&gt;HI&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M12" t="s">
+        <v>159</v>
+      </c>
+      <c r="N12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" t="s">
+        <v>161</v>
+      </c>
+      <c r="P12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Hawaii.gif</v>
+      </c>
+      <c r="S12" t="s">
+        <v>174</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/hawaii.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1823,8 +2348,38 @@
         <f t="shared" si="0"/>
         <v>('Idaho', 'ID', '1890', 'Boise', '1865', '63.8', '205671', '616561', '1'),</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/idaho.gif'&gt;&lt;/td&gt;&lt;td&gt;Idaho&lt;/td&gt;&lt;td&gt;ID&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M13" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Idaho.gif</v>
+      </c>
+      <c r="S13" t="s">
+        <v>175</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/idaho.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1859,8 +2414,38 @@
         <f t="shared" si="0"/>
         <v>('Illinois', 'IL', '1818', 'Springfield', '1837', '54', '116250', '210170', '6'),</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/illinois.gif'&gt;&lt;/td&gt;&lt;td&gt;Illinois&lt;/td&gt;&lt;td&gt;IL&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Illinois.gif</v>
+      </c>
+      <c r="S14" t="s">
+        <v>176</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/illinois.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1895,8 +2480,38 @@
         <f t="shared" si="0"/>
         <v>('Indiana', 'IN', '1816', 'Indianapolis', '1825', '361.5', '867125', '2004230', '1'),</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/indiana.gif'&gt;&lt;/td&gt;&lt;td&gt;Indiana&lt;/td&gt;&lt;td&gt;IN&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M15" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Indiana.gif</v>
+      </c>
+      <c r="S15" t="s">
+        <v>177</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/indiana.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1931,8 +2546,38 @@
         <f t="shared" si="0"/>
         <v>('Iowa', 'IA', '1846', 'Des Moines', '1857', '75.8', '203433', '569633', '1'),</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/iowa.gif'&gt;&lt;/td&gt;&lt;td&gt;Iowa&lt;/td&gt;&lt;td&gt;IA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M16" t="s">
+        <v>159</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Iowa.gif</v>
+      </c>
+      <c r="S16" t="s">
+        <v>178</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/iowa.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1967,8 +2612,38 @@
         <f t="shared" si="0"/>
         <v>('Kansas', 'KS', '1861', 'Topeka', '1856', '56', '127473', '230870', '4'),</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/kansas.gif'&gt;&lt;/td&gt;&lt;td&gt;Kansas&lt;/td&gt;&lt;td&gt;KS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Kansas.gif</v>
+      </c>
+      <c r="S17" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/kansas.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2003,8 +2678,38 @@
         <f t="shared" si="0"/>
         <v>('Kentucky', 'KY', '1792', 'Frankfort', '1792', '14.7', '25527', '70758', '14'),</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/kentucky.gif'&gt;&lt;/td&gt;&lt;td&gt;Kentucky&lt;/td&gt;&lt;td&gt;KY&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M18" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Kentucky.gif</v>
+      </c>
+      <c r="S18" t="s">
+        <v>180</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/kentucky.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2039,8 +2744,38 @@
         <f t="shared" si="0"/>
         <v>('Louisiana', 'LA', '1812', 'Baton Rouge', '1880', '76.8', '225374', '830480', '2'),</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/louisiana.gif'&gt;&lt;/td&gt;&lt;td&gt;Louisiana&lt;/td&gt;&lt;td&gt;LA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>161</v>
+      </c>
+      <c r="P19" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Louisiana.gif</v>
+      </c>
+      <c r="S19" t="s">
+        <v>181</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/louisiana.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2075,8 +2810,38 @@
         <f t="shared" si="0"/>
         <v>('Maine', 'ME', '1820', 'Augusta', '1832', '55.4', '19136', '117114', '8'),</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/maine.gif'&gt;&lt;/td&gt;&lt;td&gt;Maine&lt;/td&gt;&lt;td&gt;ME&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M20" t="s">
+        <v>159</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Maine.gif</v>
+      </c>
+      <c r="S20" t="s">
+        <v>182</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/maine.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2108,8 +2873,38 @@
         <f t="shared" si="0"/>
         <v>('Maryland', 'MD', '1788', 'Annapolis', '1694', '6.73', '38394', '', '7'),</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/maryland.gif'&gt;&lt;/td&gt;&lt;td&gt;Maryland&lt;/td&gt;&lt;td&gt;MD&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M21" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Maryland.gif</v>
+      </c>
+      <c r="S21" t="s">
+        <v>183</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/maryland.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2144,8 +2939,38 @@
         <f t="shared" si="0"/>
         <v>('Massachusetts', 'MA', '1788', 'Boston', '1630', '89.6', '694583', '4628910', '1'),</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/massachusetts.gif'&gt;&lt;/td&gt;&lt;td&gt;Massachusetts&lt;/td&gt;&lt;td&gt;MA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M22" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Massachusetts.gif</v>
+      </c>
+      <c r="S22" t="s">
+        <v>184</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/massachusetts.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2180,8 +3005,38 @@
         <f t="shared" si="0"/>
         <v>('Michigan', 'MI', '1837', 'Lansing', '1847', '35', '114297', '464036', '5'),</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/michigan.gif'&gt;&lt;/td&gt;&lt;td&gt;Michigan&lt;/td&gt;&lt;td&gt;MI&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N23" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Michigan.gif</v>
+      </c>
+      <c r="S23" t="s">
+        <v>185</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/michigan.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2216,8 +3071,38 @@
         <f t="shared" si="0"/>
         <v>('Minnesota', 'MN', '1858', 'Saint Paul', '1849', '52.8', '285068', '3348659', '2'),</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/minnesota.gif'&gt;&lt;/td&gt;&lt;td&gt;Minnesota&lt;/td&gt;&lt;td&gt;MN&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N24" t="s">
+        <v>160</v>
+      </c>
+      <c r="O24" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Minnesota.gif</v>
+      </c>
+      <c r="S24" t="s">
+        <v>186</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/minnesota.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2252,8 +3137,38 @@
         <f t="shared" si="0"/>
         <v>('Mississippi', 'MS', '1817', 'Jackson', '1821', '104.9', '173514', '567122', '1'),</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/mississippi.gif'&gt;&lt;/td&gt;&lt;td&gt;Mississippi&lt;/td&gt;&lt;td&gt;MS&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M25" t="s">
+        <v>159</v>
+      </c>
+      <c r="N25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Mississippi.gif</v>
+      </c>
+      <c r="S25" t="s">
+        <v>187</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/mississippi.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2288,8 +3203,38 @@
         <f t="shared" si="0"/>
         <v>('Missouri', 'MO', '1821', 'Jefferson City', '1826', '27.3', '43079', '149807', '15'),</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/missouri.gif'&gt;&lt;/td&gt;&lt;td&gt;Missouri&lt;/td&gt;&lt;td&gt;MO&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M26" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" t="s">
+        <v>160</v>
+      </c>
+      <c r="O26" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Missouri.gif</v>
+      </c>
+      <c r="S26" t="s">
+        <v>188</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/missouri.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2324,8 +3269,38 @@
         <f t="shared" si="0"/>
         <v>('Montana', 'MT', '1889', 'Helena', '1875', '14', '28190', '74801', '6'),</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/montana.gif'&gt;&lt;/td&gt;&lt;td&gt;Montana&lt;/td&gt;&lt;td&gt;MT&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M27" t="s">
+        <v>159</v>
+      </c>
+      <c r="N27" t="s">
+        <v>160</v>
+      </c>
+      <c r="O27" t="s">
+        <v>161</v>
+      </c>
+      <c r="P27" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Montana.gif</v>
+      </c>
+      <c r="S27" t="s">
+        <v>189</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/montana.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2360,8 +3335,38 @@
         <f t="shared" si="0"/>
         <v>('Nebraska', 'NE', '1867', 'Lincoln', '1867', '74.6', '258379', '302157', '2'),</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/nebraska.gif'&gt;&lt;/td&gt;&lt;td&gt;Nebraska&lt;/td&gt;&lt;td&gt;NE&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M28" t="s">
+        <v>159</v>
+      </c>
+      <c r="N28" t="s">
+        <v>160</v>
+      </c>
+      <c r="O28" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Nebraska.gif</v>
+      </c>
+      <c r="S28" t="s">
+        <v>190</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/nebraska.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2393,8 +3398,38 @@
         <f t="shared" si="0"/>
         <v>('Nevada', 'NV', '1864', 'Carson City', '1861', '143.4', '55274', '', '6'),</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/nevada.gif'&gt;&lt;/td&gt;&lt;td&gt;Nevada&lt;/td&gt;&lt;td&gt;NV&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M29" t="s">
+        <v>159</v>
+      </c>
+      <c r="N29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" t="s">
+        <v>161</v>
+      </c>
+      <c r="P29" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Nevada.gif</v>
+      </c>
+      <c r="S29" t="s">
+        <v>191</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/nevada.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2429,8 +3464,38 @@
         <f t="shared" si="0"/>
         <v>('New Hampshire', 'NH', '1788', 'Concord', '1808', '64.3', '42695', '146445', '3'),</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/new-hampshire.gif'&gt;&lt;/td&gt;&lt;td&gt;New Hampshire&lt;/td&gt;&lt;td&gt;NH&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M30" t="s">
+        <v>159</v>
+      </c>
+      <c r="N30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/New Hampshire.gif</v>
+      </c>
+      <c r="S30" t="s">
+        <v>192</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/new-hampshire.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2465,8 +3530,38 @@
         <f t="shared" si="0"/>
         <v>('New Jersey', 'NJ', '1787', 'Trenton', '1784', '7.66', '84913', '366513', '10'),</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/new-jersey.gif'&gt;&lt;/td&gt;&lt;td&gt;New Jersey&lt;/td&gt;&lt;td&gt;NJ&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M31" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31" t="s">
+        <v>160</v>
+      </c>
+      <c r="O31" t="s">
+        <v>161</v>
+      </c>
+      <c r="P31" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/New Jersey.gif</v>
+      </c>
+      <c r="S31" t="s">
+        <v>193</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/new-jersey.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2501,8 +3596,38 @@
         <f t="shared" si="0"/>
         <v>('New Mexico', 'NM', '1912', 'Santa Fe', '1610', '37.3', '75764', '183732', '4'),</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/new-mexico.gif'&gt;&lt;/td&gt;&lt;td&gt;New Mexico&lt;/td&gt;&lt;td&gt;NM&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M32" t="s">
+        <v>159</v>
+      </c>
+      <c r="N32" t="s">
+        <v>160</v>
+      </c>
+      <c r="O32" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/New Mexico.gif</v>
+      </c>
+      <c r="S32" t="s">
+        <v>194</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/new-mexico.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2537,8 +3662,38 @@
         <f t="shared" si="0"/>
         <v>('New York', 'NY', '1788', 'Albany', '1797', '21.4', '97856', '857592', '6'),</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/new-york.gif'&gt;&lt;/td&gt;&lt;td&gt;New York&lt;/td&gt;&lt;td&gt;NY&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M33" t="s">
+        <v>159</v>
+      </c>
+      <c r="N33" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/New York.gif</v>
+      </c>
+      <c r="S33" t="s">
+        <v>195</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/new-york.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2573,8 +3728,38 @@
         <f t="shared" si="0"/>
         <v>('North Carolina', 'NC', '1789', 'Raleigh', '1792', '114.6', '403892', '1130490', '2'),</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/north-carolina.gif'&gt;&lt;/td&gt;&lt;td&gt;North Carolina&lt;/td&gt;&lt;td&gt;NC&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M34" t="s">
+        <v>159</v>
+      </c>
+      <c r="N34" t="s">
+        <v>160</v>
+      </c>
+      <c r="O34" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/North Carolina.gif</v>
+      </c>
+      <c r="S34" t="s">
+        <v>196</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/north-carolina.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2609,8 +3794,38 @@
         <f t="shared" si="0"/>
         <v>('North Dakota', 'ND', '1889', 'Bismarck', '1883', '26.9', '61272', '108779', '2'),</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/north-dakota.gif'&gt;&lt;/td&gt;&lt;td&gt;North Dakota&lt;/td&gt;&lt;td&gt;ND&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M35" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35" t="s">
+        <v>161</v>
+      </c>
+      <c r="P35" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/North Dakota.gif</v>
+      </c>
+      <c r="S35" t="s">
+        <v>197</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/north-dakota.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2645,8 +3860,38 @@
         <f t="shared" si="0"/>
         <v>('Ohio', 'OH', '1803', 'Columbus', '1816', '210.3', '892553', '2078725', '1'),</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/ohio.gif'&gt;&lt;/td&gt;&lt;td&gt;Ohio&lt;/td&gt;&lt;td&gt;OH&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M36" t="s">
+        <v>159</v>
+      </c>
+      <c r="N36" t="s">
+        <v>160</v>
+      </c>
+      <c r="O36" t="s">
+        <v>161</v>
+      </c>
+      <c r="P36" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Ohio.gif</v>
+      </c>
+      <c r="S36" t="s">
+        <v>198</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/ohio.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2681,8 +3926,38 @@
         <f t="shared" si="0"/>
         <v>('Oklahoma', 'OK', '1907', 'Oklahoma City', '1910', '620.3', '649021', '1396445', '1'),</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/oklahoma.gif'&gt;&lt;/td&gt;&lt;td&gt;Oklahoma&lt;/td&gt;&lt;td&gt;OK&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M37" t="s">
+        <v>159</v>
+      </c>
+      <c r="N37" t="s">
+        <v>160</v>
+      </c>
+      <c r="O37" t="s">
+        <v>161</v>
+      </c>
+      <c r="P37" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Oklahoma.gif</v>
+      </c>
+      <c r="S37" t="s">
+        <v>199</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/oklahoma.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2717,8 +3992,38 @@
         <f t="shared" si="0"/>
         <v>('Oregon', 'OR', '1859', 'Salem', '1855', '45.7', '154637', '390738', '3'),</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/oregon.gif'&gt;&lt;/td&gt;&lt;td&gt;Oregon&lt;/td&gt;&lt;td&gt;OR&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M38" t="s">
+        <v>159</v>
+      </c>
+      <c r="N38" t="s">
+        <v>160</v>
+      </c>
+      <c r="O38" t="s">
+        <v>161</v>
+      </c>
+      <c r="P38" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Oregon.gif</v>
+      </c>
+      <c r="S38" t="s">
+        <v>200</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/oregon.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2753,8 +4058,38 @@
         <f t="shared" si="0"/>
         <v>('Pennsylvania', 'PA', '1787', 'Harrisburg', '1812', '8.11', '49528', '647390', '9'),</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/pennsylvania.gif'&gt;&lt;/td&gt;&lt;td&gt;Pennsylvania&lt;/td&gt;&lt;td&gt;PA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M39" t="s">
+        <v>159</v>
+      </c>
+      <c r="N39" t="s">
+        <v>160</v>
+      </c>
+      <c r="O39" t="s">
+        <v>161</v>
+      </c>
+      <c r="P39" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Pennsylvania.gif</v>
+      </c>
+      <c r="S39" t="s">
+        <v>201</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/pennsylvania.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2789,8 +4124,38 @@
         <f t="shared" si="0"/>
         <v>('Rhode Island', 'RI', '1790', 'Providence', '1900', '18.5', '178042', '1600852', '1'),</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/rhode-island.gif'&gt;&lt;/td&gt;&lt;td&gt;Rhode Island&lt;/td&gt;&lt;td&gt;RI&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M40" t="s">
+        <v>159</v>
+      </c>
+      <c r="N40" t="s">
+        <v>160</v>
+      </c>
+      <c r="O40" t="s">
+        <v>161</v>
+      </c>
+      <c r="P40" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Rhode Island.gif</v>
+      </c>
+      <c r="S40" t="s">
+        <v>202</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/rhode-island.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2825,8 +4190,38 @@
         <f t="shared" si="0"/>
         <v>('South Carolina', 'SC', '1788', 'Columbia', '1786', '125.2', '129272', '767598', '2'),</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/south-carolina.gif'&gt;&lt;/td&gt;&lt;td&gt;South Carolina&lt;/td&gt;&lt;td&gt;SC&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M41" t="s">
+        <v>159</v>
+      </c>
+      <c r="N41" t="s">
+        <v>160</v>
+      </c>
+      <c r="O41" t="s">
+        <v>161</v>
+      </c>
+      <c r="P41" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/South Carolina.gif</v>
+      </c>
+      <c r="S41" t="s">
+        <v>203</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/south-carolina.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2858,8 +4253,38 @@
         <f t="shared" si="0"/>
         <v>('South Dakota', 'SD', '1889', 'Pierre', '1889', '13', '13646', '', '8'),</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/south-dakota.gif'&gt;&lt;/td&gt;&lt;td&gt;South Dakota&lt;/td&gt;&lt;td&gt;SD&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M42" t="s">
+        <v>159</v>
+      </c>
+      <c r="N42" t="s">
+        <v>160</v>
+      </c>
+      <c r="O42" t="s">
+        <v>161</v>
+      </c>
+      <c r="P42" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/South Dakota.gif</v>
+      </c>
+      <c r="S42" t="s">
+        <v>204</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/south-dakota.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2894,8 +4319,38 @@
         <f t="shared" si="0"/>
         <v>('Tennessee', 'TN', '1796', 'Nashville', '1826', '525.9', '691243', '1903045', '1'),</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/tennessee.gif'&gt;&lt;/td&gt;&lt;td&gt;Tennessee&lt;/td&gt;&lt;td&gt;TN&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M43" t="s">
+        <v>159</v>
+      </c>
+      <c r="N43" t="s">
+        <v>160</v>
+      </c>
+      <c r="O43" t="s">
+        <v>161</v>
+      </c>
+      <c r="P43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Tennessee.gif</v>
+      </c>
+      <c r="S43" t="s">
+        <v>205</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/tennessee.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2930,8 +4385,38 @@
         <f t="shared" si="0"/>
         <v>('Texas', 'TX', '1845', 'Austin', '1839', '305.1', '964254', '2168316', '4'),</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/texas.gif'&gt;&lt;/td&gt;&lt;td&gt;Texas&lt;/td&gt;&lt;td&gt;TX&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M44" t="s">
+        <v>159</v>
+      </c>
+      <c r="N44" t="s">
+        <v>160</v>
+      </c>
+      <c r="O44" t="s">
+        <v>161</v>
+      </c>
+      <c r="P44" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Texas.gif</v>
+      </c>
+      <c r="S44" t="s">
+        <v>206</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/texas.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2966,8 +4451,38 @@
         <f t="shared" si="0"/>
         <v>('Utah', 'UT', '1896', 'Salt Lake City', '1858', '109.1', '186440', '1087873', '1'),</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/utah.gif'&gt;&lt;/td&gt;&lt;td&gt;Utah&lt;/td&gt;&lt;td&gt;UT&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M45" t="s">
+        <v>159</v>
+      </c>
+      <c r="N45" t="s">
+        <v>160</v>
+      </c>
+      <c r="O45" t="s">
+        <v>161</v>
+      </c>
+      <c r="P45" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Utah.gif</v>
+      </c>
+      <c r="S45" t="s">
+        <v>207</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/utah.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2999,8 +4514,38 @@
         <f t="shared" si="0"/>
         <v>('Vermont', 'VT', '1791', 'Montpelier', '1805', '10.2', '7855', '', '6'),</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/vermont.gif'&gt;&lt;/td&gt;&lt;td&gt;Vermont&lt;/td&gt;&lt;td&gt;VT&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M46" t="s">
+        <v>159</v>
+      </c>
+      <c r="N46" t="s">
+        <v>160</v>
+      </c>
+      <c r="O46" t="s">
+        <v>161</v>
+      </c>
+      <c r="P46" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Vermont.gif</v>
+      </c>
+      <c r="S46" t="s">
+        <v>208</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/vermont.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3035,8 +4580,38 @@
         <f t="shared" si="0"/>
         <v>('Virginia', 'VA', '1788', 'Richmond', '1780', '60.1', '204214', '1208101', '4'),</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/virginia.gif'&gt;&lt;/td&gt;&lt;td&gt;Virginia&lt;/td&gt;&lt;td&gt;VA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M47" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" t="s">
+        <v>160</v>
+      </c>
+      <c r="O47" t="s">
+        <v>161</v>
+      </c>
+      <c r="P47" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Virginia.gif</v>
+      </c>
+      <c r="S47" t="s">
+        <v>209</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/virginia.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3071,8 +4646,38 @@
         <f t="shared" si="0"/>
         <v>('Washington', 'WA', '1889', 'Olympia', '1853', '16.7', '46478', '234670', '24'),</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/washington.gif'&gt;&lt;/td&gt;&lt;td&gt;Washington&lt;/td&gt;&lt;td&gt;WA&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M48" t="s">
+        <v>159</v>
+      </c>
+      <c r="N48" t="s">
+        <v>160</v>
+      </c>
+      <c r="O48" t="s">
+        <v>161</v>
+      </c>
+      <c r="P48" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Washington.gif</v>
+      </c>
+      <c r="S48" t="s">
+        <v>210</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/washington.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3107,8 +4712,38 @@
         <f t="shared" si="0"/>
         <v>('West Virginia', 'WV', '1863', 'Charleston', '1885', '31.6', '51400', '304214', '1'),</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/west-virginia.gif'&gt;&lt;/td&gt;&lt;td&gt;West Virginia&lt;/td&gt;&lt;td&gt;WV&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M49" t="s">
+        <v>159</v>
+      </c>
+      <c r="N49" t="s">
+        <v>160</v>
+      </c>
+      <c r="O49" t="s">
+        <v>161</v>
+      </c>
+      <c r="P49" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/West Virginia.gif</v>
+      </c>
+      <c r="S49" t="s">
+        <v>211</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/west-virginia.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3143,8 +4778,38 @@
         <f t="shared" si="0"/>
         <v>('Wisconsin', 'WI', '1848', 'Madison', '1838', '68.7', '233209', '605435', '2'),</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/wisconsin.gif'&gt;&lt;/td&gt;&lt;td&gt;Wisconsin&lt;/td&gt;&lt;td&gt;WI&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M50" t="s">
+        <v>159</v>
+      </c>
+      <c r="N50" t="s">
+        <v>160</v>
+      </c>
+      <c r="O50" t="s">
+        <v>161</v>
+      </c>
+      <c r="P50" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Wisconsin.gif</v>
+      </c>
+      <c r="S50" t="s">
+        <v>212</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/wisconsin.gif'&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3179,8 +4844,42 @@
         <f t="shared" si="0"/>
         <v>('Wyoming', 'WY', '1890', 'Cheyenne', '1869', '21.1', '59466', '91738', '1'),</v>
       </c>
+      <c r="L51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;&lt;img src='./images/wyoming.gif'&gt;&lt;/td&gt;&lt;td&gt;Wyoming&lt;/td&gt;&lt;td&gt;WY&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="M51" t="s">
+        <v>159</v>
+      </c>
+      <c r="N51" t="s">
+        <v>160</v>
+      </c>
+      <c r="O51" t="s">
+        <v>161</v>
+      </c>
+      <c r="P51" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.states101.com/img/flags/gif/small/Wyoming.gif</v>
+      </c>
+      <c r="S51" t="s">
+        <v>213</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;img src='./images/wyoming.gif'&gt;</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{465F03A4-75C6-42BC-A5F6-EB85F5DC7BBB}"/>
+    <hyperlink ref="Q3:Q51" r:id="rId2" display="https://www.states101.com/img/flags/gif/small/" xr:uid="{442AEE28-097B-46DD-A052-8153F2D7998D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>